--- a/Python/Tsss/doc/data_stream.xlsx
+++ b/Python/Tsss/doc/data_stream.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Double-Sma" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="量化评估" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
   <si>
     <t>close</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,31 +242,270 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>账户数据 acct_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数据 tran_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号数据 signal_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据 origin_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Csv File =&gt; Pandas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年化收益率是把当前收益率（日收益率、周收益率、月收益率）换算成年收益率来计算的，是一种理论收益率，并不是真正的已取得的收益率。例如日收益率是万分之一，则年化收益率是3.65﹪（平年是365天）。因为年化收益率是变动的，所以年收益率不一定和年化收益率相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大回撤率</t>
+  </si>
+  <si>
+    <t>在选定周期内任一历史时点往后推，产品净值走到最低点时的收益率回撤幅度的最大值。</t>
+  </si>
+  <si>
+    <t>贝塔比率</t>
+  </si>
+  <si>
+    <t>相当于业绩评价基准收益的总体波动性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普比率</t>
+  </si>
+  <si>
+    <t>信息比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考标准收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annualized Returns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benchmark Returns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考标准年化收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略年化收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rm = [ ((标准指数终值-标准指数初值) / 标准指数初值) / 交易天数 ] * 365 × 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无风险收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk-free rate of return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以采用国债收益率曲线上10年期国债的年化收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α= (策略收益率 - 无风险收益率) - β(参考标准年化收益率 - 无风险收益率）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔法比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹森α，策略收益相比市场收益的超额收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>β= Cov(策略日收益率,参考标准日收益率)/Var(参考标准日收益率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略收益波动率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略日收益的标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Drawdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max(1-策略当日价值/当日之前策略的最高价值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E(策略日收益-参考标准日收益)/Std(策略日收益-参考标准日收益)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用ETF300指数作为参考标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annualized Volatility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(策略年化收益率 - 参考标准年化收益率) / 策略日收益标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rp = [ ((策略终值-策略初值) / 策略初值) / 交易天数 ] * 365 × 100%
+是否要考虑交易天数？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Estimator.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账户数据 acct_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易数据 tran_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号数据 signal_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始数据 origin_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Csv File =&gt; Pandas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易价格</t>
+    <t>评估数据 est_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略年化收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考标准年化收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略波动率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大回撤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +541,54 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -480,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,12 +777,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,62 +849,89 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -884,11 +1255,12 @@
     <col min="11" max="11" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.15">
       <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
@@ -896,363 +1268,447 @@
         <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="J11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="N11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="13" t="s">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="14" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="J11" s="23" t="s">
+      <c r="K17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="J13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="J14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="J15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="J16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J18" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,14 +1718,224 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="27" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
+      <c r="B6" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B9" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:E15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Python/Tsss/doc/data_stream.xlsx
+++ b/Python/Tsss/doc/data_stream.xlsx
@@ -162,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Trader.py/Account.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;&gt;&gt;&gt;&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,59 +449,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>评估数据 est_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略年化收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考标准年化收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略波动率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏普比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大回撤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trader.py/Account.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Estimator.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估数据 est_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxDD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略年化收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考标准年化收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beta系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alpha值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略波动率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏普比率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大回撤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,19 +594,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -616,7 +626,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,9 +805,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -806,48 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -876,16 +859,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -921,17 +895,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1250,7 +1299,7 @@
     <col min="6" max="6" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
@@ -1261,454 +1310,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="61" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="J2" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="23" t="s">
+      <c r="O5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="J11" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+      <c r="N11" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="20" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J13" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="6" t="s">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="7" t="s">
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="K17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
+      <c r="J18" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="J11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="N11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.15">
-      <c r="J18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1721,7 +1770,7 @@
   <dimension ref="A4:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1733,201 +1782,201 @@
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="53" t="s">
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="27" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="32" t="s">
+      <c r="D12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="E12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="C14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="41"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
